--- a/_bookdown_files/data/depth_to_groundwater.xlsx
+++ b/_bookdown_files/data/depth_to_groundwater.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bea/polybox/UWILab/GWLab/field_course_2020/data_handouts_planB_allonline/Documentation_GW_field_course_2020/_bookdown_files/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9D2F1D-D0B1-7A4E-80FB-BE49D8B77CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9285B-260C-024B-8066-0590EC3788FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{23D28F14-7525-3648-9C52-0A045526F8AA}"/>
   </bookViews>
   <sheets>
     <sheet name="June 04 2019" sheetId="2" r:id="rId1"/>
-    <sheet name="October 24 2019" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Piezometer</t>
-  </si>
-  <si>
-    <t>Depth to groundwater [m]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Well</t>
   </si>
@@ -64,19 +57,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,16 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -454,28 +433,28 @@
   <sheetData>
     <row r="1" spans="1:15" ht="51">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
@@ -488,13 +467,13 @@
       <c r="C2">
         <v>3.57</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>3.57</v>
       </c>
       <c r="E2">
         <v>3.57</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
@@ -506,13 +485,13 @@
       <c r="C3">
         <v>3.82</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>4.07</v>
       </c>
       <c r="E3">
         <v>3.81</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
@@ -524,16 +503,16 @@
       <c r="C4">
         <v>3.55</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>3.54</v>
       </c>
       <c r="E4">
         <v>3.5550000000000002</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>5.9349999999999996</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
@@ -545,16 +524,16 @@
       <c r="C5">
         <v>3.57</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>3.54</v>
       </c>
       <c r="E5">
         <v>3.57</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>8.08</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
@@ -566,16 +545,16 @@
       <c r="C6">
         <v>3.75</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>3.9</v>
       </c>
       <c r="E6">
         <v>3.75</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>7.4</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
@@ -587,16 +566,16 @@
       <c r="C7">
         <v>3.84</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="E7">
         <v>3.85</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>5.99</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
@@ -608,16 +587,16 @@
       <c r="C8">
         <v>3.95</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>4.3099999999999996</v>
       </c>
       <c r="E8">
         <v>3.94</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>6.0049999999999999</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
@@ -629,16 +608,16 @@
       <c r="C9">
         <v>3.94</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>4.29</v>
       </c>
       <c r="E9">
         <v>3.94</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>7.01</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
@@ -650,16 +629,16 @@
       <c r="C10">
         <v>2.97</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>2.29</v>
       </c>
       <c r="E10">
         <v>2.97</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>8.5</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
@@ -671,14 +650,14 @@
       <c r="C11">
         <v>3.27</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>2.9</v>
       </c>
       <c r="E11">
         <v>3.28</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="J11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
@@ -690,16 +669,16 @@
       <c r="C12">
         <v>3.66</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>3.68</v>
       </c>
       <c r="E12">
         <v>3.6549999999999998</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>6</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
@@ -711,16 +690,16 @@
       <c r="C13">
         <v>3.66</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>3.7</v>
       </c>
       <c r="E13">
         <v>3.6749999999999998</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>6.02</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
@@ -732,16 +711,16 @@
       <c r="C14">
         <v>3.55</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>3.47</v>
       </c>
       <c r="E14">
         <v>3.73</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>12.24</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
@@ -753,16 +732,16 @@
       <c r="C15">
         <v>3.74</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>3.85</v>
       </c>
       <c r="E15">
         <v>3.5449999999999999</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>6.02</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
@@ -774,14 +753,14 @@
       <c r="C16">
         <v>3.73</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>3.84</v>
       </c>
       <c r="E16">
         <v>3.7250000000000001</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="J16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
@@ -793,176 +772,18 @@
       <c r="C17">
         <v>3.79</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>3.89</v>
       </c>
       <c r="E17" s="1">
         <v>3.8</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="2"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D75D68-EF5D-AF41-85A3-4A55E08C1B50}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="51">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" s="4">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3.895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B10" s="4">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3.5150000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="B15" s="4">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="B17" s="4">
-        <v>4.1150000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
